--- a/01 Raw/produtores/Monapo/Lista_caracteristicas_Monapo.xlsx
+++ b/01 Raw/produtores/Monapo/Lista_caracteristicas_Monapo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\01 Raw\produtores\Monapo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6D970-8B3E-43C0-8281-0830A3222F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E588A3F0-79A9-4E8C-AB9F-F1BA5B6A78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25474970-004F-452D-B3EC-28DA13FE6F48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Sobrinho</t>
   </si>
   <si>
-    <t>2 anos</t>
-  </si>
-  <si>
     <t>MA00032</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Irmao e tio</t>
   </si>
   <si>
-    <t>6 anos</t>
-  </si>
-  <si>
     <t>MA00033</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Irmao</t>
   </si>
   <si>
-    <t>4 anos</t>
-  </si>
-  <si>
     <t>MA00034</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Nenhuma</t>
   </si>
   <si>
-    <t>1 ano</t>
-  </si>
-  <si>
     <t>MA00035</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>Paulo Majuta Machepo</t>
   </si>
   <si>
-    <t xml:space="preserve">6 anos </t>
-  </si>
-  <si>
     <t>MA00052</t>
   </si>
   <si>
@@ -362,18 +347,12 @@
     <t>Nora</t>
   </si>
   <si>
-    <t>3 anos</t>
-  </si>
-  <si>
     <t>MA0006</t>
   </si>
   <si>
     <t>Cília Pedro Secheni</t>
   </si>
   <si>
-    <t>Não Sabe</t>
-  </si>
-  <si>
     <t>MA0007</t>
   </si>
   <si>
@@ -500,9 +479,6 @@
     <t>Membro Influente na comunidade?</t>
   </si>
   <si>
-    <t>A quanto tempo tem ganho rendimentos com a produção de Mel</t>
-  </si>
-  <si>
     <t>MA00031</t>
   </si>
   <si>
@@ -579,6 +555,15 @@
   </si>
   <si>
     <t>Nampula</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>deslocado</t>
   </si>
 </sst>
 </file>
@@ -672,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -701,6 +686,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F34CEA-A288-4DC2-AEA1-CB2E1FD24D58}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,12 +1030,12 @@
     <col min="15" max="15" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -1062,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -1080,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1104,7 +1095,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1127,19 +1118,19 @@
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
+      <c r="N2" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1152,7 +1143,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -1161,33 +1152,33 @@
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
+      <c r="N3" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1200,42 +1191,42 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
+      <c r="N4" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1248,16 +1239,16 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>19</v>
@@ -1266,24 +1257,24 @@
         <v>17</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>37</v>
+      <c r="N5" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1296,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1305,33 +1296,33 @@
         <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
+      <c r="N6" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1344,42 +1335,42 @@
         <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>26</v>
+      <c r="N7" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1392,42 +1383,42 @@
         <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
+      <c r="N8" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1440,42 +1431,42 @@
         <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
+      <c r="N9" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1488,16 +1479,16 @@
         <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>19</v>
@@ -1506,24 +1497,24 @@
         <v>17</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>21</v>
+      <c r="N10" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1532,45 +1523,45 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>26</v>
+      <c r="N11" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1583,42 +1574,42 @@
         <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
+      <c r="N12" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1631,16 +1622,16 @@
         <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1654,19 +1645,19 @@
       <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>21</v>
+      <c r="N13" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1679,19 +1670,19 @@
         <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>17</v>
@@ -1702,19 +1693,19 @@
       <c r="M14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>66</v>
+      <c r="N14" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1727,16 +1718,16 @@
         <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>19</v>
@@ -1745,24 +1736,24 @@
         <v>17</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>37</v>
+      <c r="N15" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1775,16 +1766,16 @@
         <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>19</v>
@@ -1793,24 +1784,24 @@
         <v>17</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>33</v>
+      <c r="N16" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1823,16 +1814,16 @@
         <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>19</v>
@@ -1841,24 +1832,24 @@
         <v>17</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>37</v>
+      <c r="N17" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -1871,42 +1862,42 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>33</v>
+      <c r="N18" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1919,16 +1910,16 @@
         <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
@@ -1937,24 +1928,24 @@
         <v>17</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>33</v>
+      <c r="N19" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -1967,16 +1958,16 @@
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
@@ -1985,24 +1976,24 @@
         <v>17</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>33</v>
+      <c r="N20" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -2015,16 +2006,16 @@
         <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>19</v>
@@ -2038,19 +2029,19 @@
       <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>37</v>
+      <c r="N21" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -2063,16 +2054,16 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>19</v>
@@ -2081,24 +2072,24 @@
         <v>17</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
+      <c r="N22" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>13</v>
@@ -2107,45 +2098,45 @@
         <v>14</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
@@ -2154,45 +2145,45 @@
         <v>14</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>13</v>
@@ -2201,45 +2192,45 @@
         <v>14</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
@@ -2248,45 +2239,45 @@
         <v>14</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>13</v>
@@ -2295,45 +2286,45 @@
         <v>14</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
@@ -2342,45 +2333,45 @@
         <v>14</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
@@ -2389,45 +2380,45 @@
         <v>14</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
@@ -2436,45 +2427,45 @@
         <v>14</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>13</v>
@@ -2483,45 +2474,45 @@
         <v>14</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -2530,45 +2521,45 @@
         <v>14</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2577,57 +2568,57 @@
         <v>14</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E34" s="2">
         <v>48</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>15</v>
@@ -2636,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>19</v>
@@ -2645,36 +2636,36 @@
         <v>17</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>37</v>
+      <c r="N34" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2">
         <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
@@ -2683,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>19</v>
@@ -2692,45 +2683,45 @@
         <v>17</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>21</v>
+      <c r="N35" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>19</v>
@@ -2739,45 +2730,45 @@
         <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>33</v>
+      <c r="N36" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>19</v>
@@ -2786,45 +2777,45 @@
         <v>19</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>100</v>
+      <c r="N37" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2">
         <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>19</v>
@@ -2833,36 +2824,36 @@
         <v>17</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>108</v>
+      <c r="N38" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2">
         <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>15</v>
@@ -2871,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>19</v>
@@ -2880,36 +2871,36 @@
         <v>17</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>111</v>
+      <c r="N39" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2">
         <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>15</v>
@@ -2918,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>19</v>
@@ -2927,36 +2918,36 @@
         <v>17</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>111</v>
+      <c r="N40" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2">
         <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>16</v>
@@ -2965,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>19</v>
@@ -2974,45 +2965,45 @@
         <v>17</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>108</v>
+      <c r="N41" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2">
         <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>19</v>
@@ -3021,36 +3012,36 @@
         <v>17</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>111</v>
+      <c r="N42" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2">
         <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>15</v>
@@ -3059,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>19</v>
@@ -3068,36 +3059,36 @@
         <v>17</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>21</v>
+      <c r="N43" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2">
         <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>16</v>
@@ -3106,7 +3097,7 @@
         <v>17</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>19</v>
@@ -3115,36 +3106,36 @@
         <v>17</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>21</v>
+      <c r="N44" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
@@ -3153,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>19</v>
@@ -3162,36 +3153,36 @@
         <v>17</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>111</v>
+      <c r="N45" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2">
         <v>76</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>15</v>
@@ -3200,7 +3191,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>19</v>
@@ -3209,45 +3200,45 @@
         <v>17</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>21</v>
+      <c r="N46" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2">
         <v>73</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>19</v>
@@ -3256,36 +3247,36 @@
         <v>17</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>108</v>
+      <c r="N47" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2">
         <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>15</v>
@@ -3294,7 +3285,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>19</v>
@@ -3303,45 +3294,45 @@
         <v>17</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>21</v>
+      <c r="N48" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>19</v>
@@ -3350,36 +3341,36 @@
         <v>19</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>100</v>
+      <c r="N49" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>15</v>
@@ -3388,7 +3379,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>19</v>
@@ -3397,36 +3388,36 @@
         <v>17</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>37</v>
+      <c r="N50" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2">
         <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>15</v>
@@ -3435,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>19</v>
@@ -3444,36 +3435,36 @@
         <v>17</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>21</v>
+      <c r="N51" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2">
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>15</v>
@@ -3482,7 +3473,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>19</v>
@@ -3491,36 +3482,36 @@
         <v>19</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>111</v>
+      <c r="N52" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2">
         <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>15</v>
@@ -3529,7 +3520,7 @@
         <v>19</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>19</v>
@@ -3538,36 +3529,36 @@
         <v>17</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>21</v>
+      <c r="N53" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2">
         <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>15</v>
@@ -3576,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>19</v>
@@ -3585,36 +3576,36 @@
         <v>19</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>111</v>
+      <c r="N54" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2">
         <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>15</v>
@@ -3623,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>19</v>
@@ -3632,16 +3623,16 @@
         <v>17</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>21</v>
+      <c r="N55" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
